--- a/Phenoloxidase Activity data/Data for 150 samples/14. Phenoloxidase 12-08-24 (HEG 48-50, SEG 1-6).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/14. Phenoloxidase 12-08-24 (HEG 48-50, SEG 1-6).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -815,6 +815,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1019,11 +1020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246013256"/>
-        <c:axId val="246007376"/>
+        <c:axId val="249160304"/>
+        <c:axId val="249160688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246013256"/>
+        <c:axId val="249160304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,12 +1081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246007376"/>
+        <c:crossAx val="249160688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246007376"/>
+        <c:axId val="249160688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246013256"/>
+        <c:crossAx val="249160304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1374,11 +1375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302804408"/>
-        <c:axId val="302805584"/>
+        <c:axId val="248857720"/>
+        <c:axId val="248853800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302804408"/>
+        <c:axId val="248857720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,12 +1436,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302805584"/>
+        <c:crossAx val="248853800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302805584"/>
+        <c:axId val="248853800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302804408"/>
+        <c:crossAx val="248857720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1759,11 +1760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248279176"/>
-        <c:axId val="248278784"/>
+        <c:axId val="248854192"/>
+        <c:axId val="248854584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248279176"/>
+        <c:axId val="248854192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,12 +1821,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248278784"/>
+        <c:crossAx val="248854584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248278784"/>
+        <c:axId val="248854584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248279176"/>
+        <c:crossAx val="248854192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1946,6 +1947,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2020,6 +2022,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2144,11 +2147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246006200"/>
-        <c:axId val="246006984"/>
+        <c:axId val="248653200"/>
+        <c:axId val="248653584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246006200"/>
+        <c:axId val="248653200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,12 +2208,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246006984"/>
+        <c:crossAx val="248653584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246006984"/>
+        <c:axId val="248653584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,7 +2270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246006200"/>
+        <c:crossAx val="248653200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2331,6 +2334,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2405,6 +2409,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2529,11 +2534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246007768"/>
-        <c:axId val="246008944"/>
+        <c:axId val="289215720"/>
+        <c:axId val="289216104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246007768"/>
+        <c:axId val="289215720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,12 +2595,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246008944"/>
+        <c:crossAx val="289216104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246008944"/>
+        <c:axId val="289216104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246007768"/>
+        <c:crossAx val="289215720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2716,6 +2721,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2920,11 +2926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302802056"/>
-        <c:axId val="302806368"/>
+        <c:axId val="248713184"/>
+        <c:axId val="248762736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302802056"/>
+        <c:axId val="248713184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,12 +2987,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302806368"/>
+        <c:crossAx val="248762736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302806368"/>
+        <c:axId val="248762736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,7 +3049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302802056"/>
+        <c:crossAx val="248713184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3107,6 +3113,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3181,6 +3188,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3305,11 +3313,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302804800"/>
-        <c:axId val="302803624"/>
+        <c:axId val="248796088"/>
+        <c:axId val="248796472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302804800"/>
+        <c:axId val="248796088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,12 +3374,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302803624"/>
+        <c:crossAx val="248796472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302803624"/>
+        <c:axId val="248796472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3428,7 +3436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302804800"/>
+        <c:crossAx val="248796088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3492,6 +3500,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3566,6 +3575,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3704,11 +3714,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302805976"/>
-        <c:axId val="302800096"/>
+        <c:axId val="248766688"/>
+        <c:axId val="248763160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302805976"/>
+        <c:axId val="248766688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3765,12 +3775,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302800096"/>
+        <c:crossAx val="248763160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302800096"/>
+        <c:axId val="248763160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3827,7 +3837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302805976"/>
+        <c:crossAx val="248766688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3891,6 +3901,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4109,11 +4120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302806760"/>
-        <c:axId val="302800488"/>
+        <c:axId val="248764728"/>
+        <c:axId val="248859680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302806760"/>
+        <c:axId val="248764728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,12 +4181,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302800488"/>
+        <c:crossAx val="248859680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302800488"/>
+        <c:axId val="248859680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4232,7 +4243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302806760"/>
+        <c:crossAx val="248764728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4501,11 +4512,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302801272"/>
-        <c:axId val="302805192"/>
+        <c:axId val="248860856"/>
+        <c:axId val="248860072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302801272"/>
+        <c:axId val="248860856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4562,12 +4573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302805192"/>
+        <c:crossAx val="248860072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302805192"/>
+        <c:axId val="248860072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4624,7 +4635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302801272"/>
+        <c:crossAx val="248860856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4888,11 +4899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302802448"/>
-        <c:axId val="302802840"/>
+        <c:axId val="248856544"/>
+        <c:axId val="248860464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302802448"/>
+        <c:axId val="248856544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4949,12 +4960,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302802840"/>
+        <c:crossAx val="248860464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302802840"/>
+        <c:axId val="248860464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5011,7 +5022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302802448"/>
+        <c:crossAx val="248856544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11781,8 +11792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:L132"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15800,8 +15811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="F116" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20805,7 +20816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/Phenoloxidase Activity data/Data for 150 samples/14. Phenoloxidase 12-08-24 (HEG 48-50, SEG 1-6).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/14. Phenoloxidase 12-08-24 (HEG 48-50, SEG 1-6).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -815,7 +815,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1020,11 +1019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249160304"/>
-        <c:axId val="249160688"/>
+        <c:axId val="281126568"/>
+        <c:axId val="281126960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249160304"/>
+        <c:axId val="281126568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,12 +1080,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249160688"/>
+        <c:crossAx val="281126960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249160688"/>
+        <c:axId val="281126960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249160304"/>
+        <c:crossAx val="281126568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1375,11 +1374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248857720"/>
-        <c:axId val="248853800"/>
+        <c:axId val="285551112"/>
+        <c:axId val="285550328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248857720"/>
+        <c:axId val="285551112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,12 +1435,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248853800"/>
+        <c:crossAx val="285550328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248853800"/>
+        <c:axId val="285550328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248857720"/>
+        <c:crossAx val="285551112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1760,11 +1759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248854192"/>
-        <c:axId val="248854584"/>
+        <c:axId val="286636664"/>
+        <c:axId val="286638232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248854192"/>
+        <c:axId val="286636664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,12 +1820,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248854584"/>
+        <c:crossAx val="286638232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248854584"/>
+        <c:axId val="286638232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248854192"/>
+        <c:crossAx val="286636664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1947,7 +1946,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2022,7 +2020,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2147,11 +2144,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248653200"/>
-        <c:axId val="248653584"/>
+        <c:axId val="281128920"/>
+        <c:axId val="281130488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248653200"/>
+        <c:axId val="281128920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,12 +2205,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248653584"/>
+        <c:crossAx val="281130488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248653584"/>
+        <c:axId val="281130488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248653200"/>
+        <c:crossAx val="281128920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2534,11 +2531,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289215720"/>
-        <c:axId val="289216104"/>
+        <c:axId val="236172088"/>
+        <c:axId val="236174048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="289215720"/>
+        <c:axId val="236172088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,12 +2592,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289216104"/>
+        <c:crossAx val="236174048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289216104"/>
+        <c:axId val="236174048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2657,7 +2654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289215720"/>
+        <c:crossAx val="236172088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2926,11 +2923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248713184"/>
-        <c:axId val="248762736"/>
+        <c:axId val="285552680"/>
+        <c:axId val="285553072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248713184"/>
+        <c:axId val="285552680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,12 +2984,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248762736"/>
+        <c:crossAx val="285553072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248762736"/>
+        <c:axId val="285553072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3049,7 +3046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248713184"/>
+        <c:crossAx val="285552680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3313,11 +3310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248796088"/>
-        <c:axId val="248796472"/>
+        <c:axId val="285547192"/>
+        <c:axId val="285547584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248796088"/>
+        <c:axId val="285547192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3374,12 +3371,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248796472"/>
+        <c:crossAx val="285547584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248796472"/>
+        <c:axId val="285547584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248796088"/>
+        <c:crossAx val="285547192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3714,11 +3711,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248766688"/>
-        <c:axId val="248763160"/>
+        <c:axId val="285548368"/>
+        <c:axId val="285553464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248766688"/>
+        <c:axId val="285548368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,12 +3772,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248763160"/>
+        <c:crossAx val="285553464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248763160"/>
+        <c:axId val="285553464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248766688"/>
+        <c:crossAx val="285548368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3901,7 +3898,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4120,11 +4116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248764728"/>
-        <c:axId val="248859680"/>
+        <c:axId val="285546408"/>
+        <c:axId val="285549544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248764728"/>
+        <c:axId val="285546408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4181,12 +4177,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248859680"/>
+        <c:crossAx val="285549544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248859680"/>
+        <c:axId val="285549544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,7 +4239,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248764728"/>
+        <c:crossAx val="285546408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4307,7 +4303,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4512,11 +4507,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248860856"/>
-        <c:axId val="248860072"/>
+        <c:axId val="285546800"/>
+        <c:axId val="285547976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248860856"/>
+        <c:axId val="285546800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,12 +4568,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248860072"/>
+        <c:crossAx val="285547976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248860072"/>
+        <c:axId val="285547976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4635,7 +4630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248860856"/>
+        <c:crossAx val="285546800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4699,7 +4694,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4774,7 +4768,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4899,11 +4892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248856544"/>
-        <c:axId val="248860464"/>
+        <c:axId val="285548760"/>
+        <c:axId val="285549936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248856544"/>
+        <c:axId val="285548760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4960,12 +4953,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248860464"/>
+        <c:crossAx val="285549936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248860464"/>
+        <c:axId val="285549936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5022,7 +5015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248856544"/>
+        <c:crossAx val="285548760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11792,8 +11785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15811,8 +15804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20816,8 +20809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Phenoloxidase Activity data/Data for 150 samples/14. Phenoloxidase 12-08-24 (HEG 48-50, SEG 1-6).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/14. Phenoloxidase 12-08-24 (HEG 48-50, SEG 1-6).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -815,6 +815,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1019,11 +1020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281126568"/>
-        <c:axId val="281126960"/>
+        <c:axId val="136073800"/>
+        <c:axId val="136076544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281126568"/>
+        <c:axId val="136073800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,12 +1081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281126960"/>
+        <c:crossAx val="136076544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281126960"/>
+        <c:axId val="136076544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281126568"/>
+        <c:crossAx val="136073800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1374,11 +1375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285551112"/>
-        <c:axId val="285550328"/>
+        <c:axId val="245819488"/>
+        <c:axId val="245819880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285551112"/>
+        <c:axId val="245819488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,12 +1436,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285550328"/>
+        <c:crossAx val="245819880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285550328"/>
+        <c:axId val="245819880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285551112"/>
+        <c:crossAx val="245819488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1759,11 +1760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="286636664"/>
-        <c:axId val="286638232"/>
+        <c:axId val="286849344"/>
+        <c:axId val="286847776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="286636664"/>
+        <c:axId val="286849344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,12 +1821,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286638232"/>
+        <c:crossAx val="286847776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286638232"/>
+        <c:axId val="286847776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286636664"/>
+        <c:crossAx val="286849344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1946,6 +1947,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2020,6 +2022,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2144,11 +2147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281128920"/>
-        <c:axId val="281130488"/>
+        <c:axId val="136074584"/>
+        <c:axId val="136076152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281128920"/>
+        <c:axId val="136074584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,12 +2208,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281130488"/>
+        <c:crossAx val="136076152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281130488"/>
+        <c:axId val="136076152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,7 +2270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281128920"/>
+        <c:crossAx val="136074584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2531,11 +2534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236172088"/>
-        <c:axId val="236174048"/>
+        <c:axId val="136074192"/>
+        <c:axId val="136075368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236172088"/>
+        <c:axId val="136074192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,12 +2595,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236174048"/>
+        <c:crossAx val="136075368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236174048"/>
+        <c:axId val="136075368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236172088"/>
+        <c:crossAx val="136074192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2923,11 +2926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285552680"/>
-        <c:axId val="285553072"/>
+        <c:axId val="245823800"/>
+        <c:axId val="245820272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285552680"/>
+        <c:axId val="245823800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,12 +2987,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285553072"/>
+        <c:crossAx val="245820272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285553072"/>
+        <c:axId val="245820272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285552680"/>
+        <c:crossAx val="245823800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3110,7 +3113,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3185,7 +3187,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3310,11 +3311,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285547192"/>
-        <c:axId val="285547584"/>
+        <c:axId val="245818704"/>
+        <c:axId val="245822232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285547192"/>
+        <c:axId val="245818704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3371,12 +3372,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285547584"/>
+        <c:crossAx val="245822232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285547584"/>
+        <c:axId val="245822232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,7 +3434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285547192"/>
+        <c:crossAx val="245818704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3711,11 +3712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285548368"/>
-        <c:axId val="285553464"/>
+        <c:axId val="245824192"/>
+        <c:axId val="245821840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285548368"/>
+        <c:axId val="245824192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,12 +3773,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285553464"/>
+        <c:crossAx val="245821840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285553464"/>
+        <c:axId val="245821840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3834,7 +3835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285548368"/>
+        <c:crossAx val="245824192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3898,6 +3899,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4116,11 +4118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285546408"/>
-        <c:axId val="285549544"/>
+        <c:axId val="245821056"/>
+        <c:axId val="245823408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285546408"/>
+        <c:axId val="245821056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,12 +4179,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285549544"/>
+        <c:crossAx val="245823408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285549544"/>
+        <c:axId val="245823408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4239,7 +4241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285546408"/>
+        <c:crossAx val="245821056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4303,6 +4305,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4507,11 +4510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285546800"/>
-        <c:axId val="285547976"/>
+        <c:axId val="245824584"/>
+        <c:axId val="245824976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285546800"/>
+        <c:axId val="245824584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,12 +4571,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285547976"/>
+        <c:crossAx val="245824976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285547976"/>
+        <c:axId val="245824976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4630,7 +4633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285546800"/>
+        <c:crossAx val="245824584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4694,6 +4697,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4768,6 +4772,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4892,11 +4897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285548760"/>
-        <c:axId val="285549936"/>
+        <c:axId val="245825760"/>
+        <c:axId val="245826152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285548760"/>
+        <c:axId val="245825760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4953,12 +4958,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285549936"/>
+        <c:crossAx val="245826152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285549936"/>
+        <c:axId val="245826152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5015,7 +5020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285548760"/>
+        <c:crossAx val="245825760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11785,8 +11790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:L72"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15804,8 +15809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20809,8 +20814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
